--- a/ORG_FACULTY.xlsx
+++ b/ORG_FACULTY.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA319919-148D-4CAB-9915-623D529D4EE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF4239D-E676-483B-BF62-D869B3ECACBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>ORG_FAC_PK</t>
   </si>
@@ -89,6 +89,15 @@
   </si>
   <si>
     <t>คณก.กำหนดมาตรฐานงาน</t>
+  </si>
+  <si>
+    <t>ORG_FAC_IDENOLD</t>
+  </si>
+  <si>
+    <t>ORG_FAC_IDENNEW</t>
+  </si>
+  <si>
+    <t>ORG_FAC_STATUS</t>
   </si>
 </sst>
 </file>
@@ -409,20 +418,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.90625" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
     <col min="2" max="3" width="46" customWidth="1"/>
-    <col min="4" max="6" width="25.90625" customWidth="1"/>
+    <col min="4" max="6" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,8 +441,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>9000</v>
       </c>
@@ -444,7 +462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>9001</v>
       </c>
@@ -455,7 +473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>9002</v>
       </c>
@@ -466,7 +484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>9003</v>
       </c>
@@ -477,7 +495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>9004</v>
       </c>
@@ -488,7 +506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>9005</v>
       </c>
@@ -499,7 +517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>9006</v>
       </c>
@@ -510,7 +528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>9007</v>
       </c>
@@ -521,7 +539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9008</v>
       </c>
@@ -532,7 +550,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9009</v>
       </c>
@@ -543,7 +561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9010</v>
       </c>
